--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>姓名</t>
   </si>
@@ -43,12 +56,25 @@
     <t>이관진</t>
   </si>
   <si>
+    <r>
+      <t>QA1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BatangChe"/>
+        <charset val="134"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+  </si>
+  <si>
+    <t>정성국</t>
+  </si>
+  <si>
     <t>QA1팀</t>
   </si>
   <si>
-    <t>정성국</t>
-  </si>
-  <si>
     <t>박옥화</t>
   </si>
   <si>
@@ -58,13 +84,10 @@
     <t>최미경</t>
   </si>
   <si>
-    <t>최금희</t>
-  </si>
-  <si>
     <t>노혜옥</t>
   </si>
   <si>
-    <t>정용준</t>
+    <t>정룡준</t>
   </si>
   <si>
     <t>박군달</t>
@@ -76,54 +99,70 @@
     <t>이해연</t>
   </si>
   <si>
+    <t>정종문</t>
+  </si>
+  <si>
+    <t>유문요</t>
+  </si>
+  <si>
+    <t>도현우</t>
+  </si>
+  <si>
+    <t>양가흔</t>
+  </si>
+  <si>
+    <t>주현미</t>
+  </si>
+  <si>
+    <t>한혜정</t>
+  </si>
+  <si>
+    <t>이청림</t>
+  </si>
+  <si>
+    <r>
+      <t>QA2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BatangChe"/>
+        <charset val="134"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+  </si>
+  <si>
+    <t>이세홍</t>
+  </si>
+  <si>
+    <t>QA2팀</t>
+  </si>
+  <si>
+    <t>양위</t>
+  </si>
+  <si>
+    <t>정춘미</t>
+  </si>
+  <si>
+    <t>김신평</t>
+  </si>
+  <si>
+    <t>허은봉</t>
+  </si>
+  <si>
+    <t>배전위</t>
+  </si>
+  <si>
+    <t>최경일</t>
+  </si>
+  <si>
+    <t>노연홍</t>
+  </si>
+  <si>
     <t>박세웅</t>
   </si>
   <si>
-    <t>심유경</t>
-  </si>
-  <si>
-    <t>정종문</t>
-  </si>
-  <si>
-    <t>유문요</t>
-  </si>
-  <si>
-    <t>이청림</t>
-  </si>
-  <si>
-    <t>QA2팀</t>
-  </si>
-  <si>
-    <t>이세홍</t>
-  </si>
-  <si>
-    <t>양위</t>
-  </si>
-  <si>
-    <t>이패류</t>
-  </si>
-  <si>
-    <t>정춘미</t>
-  </si>
-  <si>
-    <t>김신평</t>
-  </si>
-  <si>
-    <t>허은봉</t>
-  </si>
-  <si>
-    <t>장청림</t>
-  </si>
-  <si>
-    <t>노연홍</t>
-  </si>
-  <si>
-    <t>성미령</t>
-  </si>
-  <si>
-    <t>최경일</t>
-  </si>
-  <si>
     <t>남송미</t>
   </si>
   <si>
@@ -133,79 +172,100 @@
     <t>신인규</t>
   </si>
   <si>
+    <t>채용</t>
+  </si>
+  <si>
+    <t>김춘미</t>
+  </si>
+  <si>
+    <t>김윤하</t>
+  </si>
+  <si>
     <t>이현미</t>
   </si>
   <si>
+    <r>
+      <t>운영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BatangChe"/>
+        <charset val="134"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+  </si>
+  <si>
+    <t>김현걸</t>
+  </si>
+  <si>
     <t>운영1팀</t>
   </si>
   <si>
-    <t>김현걸</t>
-  </si>
-  <si>
-    <t>최국화</t>
-  </si>
-  <si>
-    <t>계영순</t>
-  </si>
-  <si>
     <t>이용</t>
   </si>
   <si>
-    <t>왕은비</t>
-  </si>
-  <si>
     <t>김현주</t>
   </si>
   <si>
     <t>김흠</t>
   </si>
   <si>
-    <t>조천</t>
-  </si>
-  <si>
-    <t>김명덕</t>
-  </si>
-  <si>
-    <t>왕문호</t>
-  </si>
-  <si>
-    <t>편채림</t>
-  </si>
-  <si>
     <t>김태호</t>
   </si>
   <si>
-    <t>김림</t>
-  </si>
-  <si>
-    <t>최은</t>
+    <t>손욱</t>
   </si>
   <si>
     <t>강세권</t>
   </si>
   <si>
+    <r>
+      <t>운영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BatangChe"/>
+        <charset val="134"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+  </si>
+  <si>
+    <t>나금수</t>
+  </si>
+  <si>
     <t>운영2팀</t>
   </si>
   <si>
-    <t>나금수</t>
-  </si>
-  <si>
     <t>김설영</t>
   </si>
   <si>
-    <t>김진봉</t>
-  </si>
-  <si>
     <t>진정련</t>
-  </si>
-  <si>
-    <t>박영미</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -243,34 +303,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -287,6 +319,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -296,41 +367,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,13 +420,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,55 +456,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9FBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +612,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,108 +648,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -612,16 +684,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="61"/>
+      </right>
+      <top style="thin">
+        <color indexed="61"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="61"/>
+      </left>
+      <right style="thin">
+        <color indexed="61"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="61"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +753,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,94 +826,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,56 +916,62 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,61 +987,76 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1201,8 +1329,8 @@
   <sheetPr/>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7333333333333" defaultRowHeight="17.25" outlineLevelCol="1"/>
@@ -1243,412 +1371,380 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
+      <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>25</v>
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>25</v>
+      <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>25</v>
+      <c r="A28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>25</v>
+      <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>25</v>
+      <c r="A30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>25</v>
+      <c r="A31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>25</v>
+      <c r="A32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>25</v>
+      <c r="A33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>25</v>
+      <c r="A34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>40</v>
+      <c r="A35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>40</v>
+      <c r="A36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>40</v>
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>40</v>
+      <c r="A39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>40</v>
+      <c r="A40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>40</v>
+      <c r="A41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>40</v>
+      <c r="A43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>40</v>
+      <c r="A44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>40</v>
+      <c r="A45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>40</v>
+      <c r="A46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>40</v>
+      <c r="A47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A48" s="10"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A49" s="11"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>姓名</t>
   </si>
@@ -35,231 +35,139 @@
     <t>部门</t>
   </si>
   <si>
-    <t>이수빈</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>허성욱</t>
-  </si>
-  <si>
-    <t>운영실장</t>
-  </si>
-  <si>
-    <t>손미나</t>
-  </si>
-  <si>
-    <t>재무팀</t>
-  </si>
-  <si>
-    <t>이관진</t>
-  </si>
-  <si>
-    <r>
-      <t>QA1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="BatangChe"/>
-        <charset val="134"/>
-      </rPr>
-      <t>팀</t>
-    </r>
-  </si>
-  <si>
-    <t>정성국</t>
-  </si>
-  <si>
-    <t>QA1팀</t>
-  </si>
-  <si>
-    <t>박옥화</t>
-  </si>
-  <si>
-    <t>이군</t>
-  </si>
-  <si>
-    <t>최미경</t>
-  </si>
-  <si>
-    <t>노혜옥</t>
-  </si>
-  <si>
-    <t>정룡준</t>
-  </si>
-  <si>
-    <t>박군달</t>
-  </si>
-  <si>
-    <t>배춘매</t>
-  </si>
-  <si>
-    <t>이해연</t>
-  </si>
-  <si>
-    <t>정종문</t>
-  </si>
-  <si>
-    <t>유문요</t>
-  </si>
-  <si>
-    <t>도현우</t>
-  </si>
-  <si>
-    <t>양가흔</t>
-  </si>
-  <si>
-    <t>주현미</t>
-  </si>
-  <si>
-    <t>한혜정</t>
-  </si>
-  <si>
-    <t>이청림</t>
-  </si>
-  <si>
-    <r>
-      <t>QA2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="BatangChe"/>
-        <charset val="134"/>
-      </rPr>
-      <t>팀</t>
-    </r>
-  </si>
-  <si>
-    <t>이세홍</t>
-  </si>
-  <si>
-    <t>QA2팀</t>
-  </si>
-  <si>
-    <t>양위</t>
-  </si>
-  <si>
-    <t>정춘미</t>
-  </si>
-  <si>
-    <t>김신평</t>
-  </si>
-  <si>
-    <t>허은봉</t>
-  </si>
-  <si>
-    <t>배전위</t>
-  </si>
-  <si>
-    <t>최경일</t>
-  </si>
-  <si>
-    <t>노연홍</t>
-  </si>
-  <si>
-    <t>박세웅</t>
-  </si>
-  <si>
-    <t>남송미</t>
-  </si>
-  <si>
-    <t>함설영</t>
-  </si>
-  <si>
-    <t>신인규</t>
-  </si>
-  <si>
-    <t>채용</t>
-  </si>
-  <si>
-    <t>김춘미</t>
-  </si>
-  <si>
-    <t>김윤하</t>
-  </si>
-  <si>
-    <t>이현미</t>
-  </si>
-  <si>
-    <r>
-      <t>운영</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="BatangChe"/>
-        <charset val="134"/>
-      </rPr>
-      <t>팀</t>
-    </r>
-  </si>
-  <si>
-    <t>김현걸</t>
-  </si>
-  <si>
-    <t>운영1팀</t>
-  </si>
-  <si>
-    <t>이용</t>
-  </si>
-  <si>
-    <t>김현주</t>
-  </si>
-  <si>
-    <t>김흠</t>
-  </si>
-  <si>
-    <t>김태호</t>
-  </si>
-  <si>
-    <t>손욱</t>
-  </si>
-  <si>
-    <t>강세권</t>
-  </si>
-  <si>
-    <r>
-      <t>운영</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="BatangChe"/>
-        <charset val="134"/>
-      </rPr>
-      <t>팀</t>
-    </r>
-  </si>
-  <si>
-    <t>나금수</t>
-  </si>
-  <si>
-    <t>운영2팀</t>
-  </si>
-  <si>
-    <t>김설영</t>
-  </si>
-  <si>
-    <t>진정련</t>
+    <t xml:space="preserve"> 金  龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金学永</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 申美化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 朴永鹤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 朴林杰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 梁永男</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 梁永虎</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金红梅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吴民华</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金在峰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 朴惠娟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  崔美淑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  金贵南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  金德辉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  金旭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  廉京花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  金博女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  崔龙哲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  李春燮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  李京浩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  李哲敏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  金敏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  朴文泽</t>
+  </si>
+  <si>
+    <t>李龙华</t>
+  </si>
+  <si>
+    <t>崔承日</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 朴云龙</t>
+  </si>
+  <si>
+    <t>杨勇</t>
+  </si>
+  <si>
+    <t>洪成斌</t>
+  </si>
+  <si>
+    <t>张海龙</t>
+  </si>
+  <si>
+    <t>金香文</t>
+  </si>
+  <si>
+    <t>姜世权</t>
+  </si>
+  <si>
+    <t>玄哲</t>
+  </si>
+  <si>
+    <t>金洪康</t>
+  </si>
+  <si>
+    <t>金彪</t>
+  </si>
+  <si>
+    <t>韩明哲</t>
+  </si>
+  <si>
+    <t>蔡光勋</t>
+  </si>
+  <si>
+    <t>朴明惠</t>
+  </si>
+  <si>
+    <t>金山</t>
+  </si>
+  <si>
+    <t>李国天</t>
+  </si>
+  <si>
+    <t>金勇军</t>
+  </si>
+  <si>
+    <t>董星龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金成日</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 赵  云</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 丁  一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  朴鸿杰</t>
   </si>
 </sst>
 </file>
@@ -272,7 +180,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,12 +201,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="BatangChe"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -447,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,24 +358,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9FBEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -659,12 +543,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -683,21 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="61"/>
@@ -705,19 +589,6 @@
       <top style="thin">
         <color indexed="61"/>
       </top>
-      <bottom style="thin">
-        <color indexed="61"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="61"/>
-      </left>
-      <right style="thin">
-        <color indexed="61"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="61"/>
       </bottom>
@@ -841,171 +712,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7333333333333" defaultRowHeight="17.25" outlineLevelCol="1"/>
@@ -1350,401 +1209,295 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="9"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
